--- a/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
+++ b/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\ohm.computsdoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4C22E3-A41E-440A-85E9-97A79E80830C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C95D3D-13C0-4A9D-8C73-F14DA79342E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -636,86 +636,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,36 +1040,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5C5E3-FA7E-40AA-AD66-D8A07F225F1A}">
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="57.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.23046875" customWidth="1"/>
+    <col min="2" max="3" width="17.23046875" customWidth="1"/>
+    <col min="4" max="4" width="57.4609375" customWidth="1"/>
+    <col min="5" max="5" width="50.4609375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1080,121 +1080,121 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="25"/>
-      <c r="C5" s="31"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="25"/>
-      <c r="C6" s="31"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="25"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="44"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="25"/>
-      <c r="C8" s="31"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="25"/>
-      <c r="C9" s="31"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="41" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="25"/>
-      <c r="C10" s="31"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="44"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="25"/>
-      <c r="C11" s="31"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="25"/>
-      <c r="C12" s="31"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="41" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="26"/>
-      <c r="C13" s="32"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B14" s="24">
         <v>2</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1207,83 +1207,83 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B15" s="25"/>
-      <c r="C15" s="31"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B16" s="25"/>
-      <c r="C16" s="31"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B17" s="25"/>
-      <c r="C17" s="31"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B18" s="25"/>
-      <c r="C18" s="31"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B19" s="25"/>
-      <c r="C19" s="31"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
-      <c r="C20" s="31"/>
+    <row r="20" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="39">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B21" s="28">
         <v>3</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1296,74 +1296,77 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="41"/>
-      <c r="C22" s="31"/>
+    <row r="22" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B22" s="29"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="41"/>
-      <c r="C23" s="31"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="41"/>
-      <c r="C24" s="31"/>
+    <row r="24" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B24" s="29"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="41"/>
-      <c r="C25" s="31"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B25" s="29"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+    <row r="26" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="30"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="19" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="B21:B26"/>
@@ -1372,14 +1375,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="C21:C26"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
+++ b/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\ohm.computsdoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C95D3D-13C0-4A9D-8C73-F14DA79342E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2C3FE-A9C3-4F43-A626-EB940415DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
   </bookViews>
@@ -643,79 +643,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5C5E3-FA7E-40AA-AD66-D8A07F225F1A}">
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="66" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="66" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1055,21 +1055,21 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:6" s="3" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1081,120 +1081,120 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="25"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="25"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="25"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="25"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="24">
+      <c r="B14" s="26">
         <v>2</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1203,24 +1203,24 @@
       <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="25"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1232,58 +1232,58 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="27"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B21" s="28">
+      <c r="B21" s="30">
         <v>3</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1292,48 +1292,48 @@
       <c r="E21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B22" s="29"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B23" s="29"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B24" s="29"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="29"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1345,8 +1345,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="30"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1359,6 +1359,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F6:F8"/>
@@ -1367,19 +1380,6 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
+++ b/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\ohm.computsdoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2C3FE-A9C3-4F43-A626-EB940415DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF99FE0-71A4-4FA0-993C-BEFBEA17A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
   </bookViews>
@@ -643,79 +643,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5C5E3-FA7E-40AA-AD66-D8A07F225F1A}">
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1055,21 +1055,21 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:6" s="3" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1081,120 +1081,120 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="27"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="27"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="27"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="27"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="27"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="27"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1203,24 +1203,24 @@
       <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="27"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B16" s="27"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1232,58 +1232,58 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B17" s="27"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B18" s="27"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="27"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="29"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B21" s="30">
+      <c r="B21" s="28">
         <v>3</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1292,48 +1292,48 @@
       <c r="E21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B22" s="31"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B23" s="31"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B24" s="31"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="31"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1345,8 +1345,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="32"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1359,11 +1359,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="B21:B26"/>
@@ -1372,14 +1375,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="C21:C26"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
+++ b/ohm.computsdoras/Reparación de computadoras 3meses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\ohm.computsdoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF99FE0-71A4-4FA0-993C-BEFBEA17A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C72D8C-F47D-4E27-9EE8-5EB8C14D85B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1F2AC01F-8639-48DE-8C08-DE241015555C}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>MES</t>
   </si>
@@ -215,13 +217,16 @@
   </si>
   <si>
     <t>SEMANA 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿qué debemos hacer antes de instalar los programas para mejorar el uso y el rendimiento del computador?.QUE SON DRIVERS Y COMO ACTUALIZARLOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +264,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -597,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -642,80 +654,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5C5E3-FA7E-40AA-AD66-D8A07F225F1A}">
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1055,21 +1070,21 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:6" s="3" customFormat="1" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1081,120 +1096,120 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="25"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="25"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="25"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="25"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="2:6" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="24">
+      <c r="B14" s="27">
         <v>2</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1203,24 +1218,24 @@
       <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="25"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1231,59 +1246,62 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="35"/>
+    <row r="17" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B17" s="28"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B18" s="28"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="35"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="2:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="28"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="27"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="2:7" ht="37.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="30"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B21" s="28">
+      <c r="F20" s="25"/>
+      <c r="G20" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B21" s="31">
         <v>3</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1292,48 +1310,48 @@
       <c r="E21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B22" s="29"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B22" s="32"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B23" s="29"/>
-      <c r="C23" s="35"/>
+      <c r="F22" s="44"/>
+    </row>
+    <row r="23" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B23" s="32"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B24" s="29"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B24" s="32"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="29"/>
-      <c r="C25" s="35"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B25" s="32"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1344,9 +1362,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="30"/>
-      <c r="C26" s="40"/>
+    <row r="26" spans="2:7" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="33"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1359,6 +1377,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F6:F8"/>
@@ -1367,19 +1398,6 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
